--- a/2_Formulas.xlsx
+++ b/2_Formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Job\Skills\Excel\Excel-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C87A68B-4F75-406C-9739-AEEF8281867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9B48C-829D-4D2F-A655-9A2B8BBC3E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="435" windowWidth="38700" windowHeight="18990" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="6630" yWindow="780" windowWidth="38700" windowHeight="18990" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="LeftRight" sheetId="4" r:id="rId4"/>
     <sheet name="DateToText" sheetId="3" r:id="rId5"/>
     <sheet name="TRIM" sheetId="6" r:id="rId6"/>
-    <sheet name="Substitute" sheetId="7" r:id="rId7"/>
-    <sheet name="SUM-SumIF" sheetId="12" r:id="rId8"/>
-    <sheet name="Count-CountIF" sheetId="5" r:id="rId9"/>
-    <sheet name="Concatenate" sheetId="1" r:id="rId10"/>
+    <sheet name="Concatenate" sheetId="1" r:id="rId7"/>
+    <sheet name="Substitute" sheetId="7" r:id="rId8"/>
+    <sheet name="SUM-SumIF" sheetId="12" r:id="rId9"/>
+    <sheet name="Count-CountIF" sheetId="5" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -248,9 +248,6 @@
     <t>TRIM(C2)</t>
   </si>
   <si>
-    <t>It just removes unwanted spaces on both sides</t>
-  </si>
-  <si>
     <t>with 1 instance</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>RIGHT(H2, 4)</t>
+  </si>
+  <si>
+    <t>Removes spaces on both ends</t>
   </si>
 </sst>
 </file>
@@ -892,16 +892,16 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1206,24 +1206,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1252,10 +1248,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1514,18 +1516,6 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" t="str">
-        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -1537,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137ACEFD-E950-4ACE-A7FD-83ED10CB531A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,10 +1566,10 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
         <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1901,16 +1891,16 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
         <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2313,7 +2303,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2680,13 +2670,13 @@
         <v>37</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3097,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C4862C-FF60-4E24-9054-4C595B8DA66E}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +3102,7 @@
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3144,7 +3134,7 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3472,7 +3462,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,6 +3476,7 @@
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3516,11 +3507,11 @@
       <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3551,6 +3542,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3580,6 +3575,10 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3609,6 +3608,10 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3638,6 +3641,10 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3667,6 +3674,10 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3696,6 +3707,10 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3725,6 +3740,10 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3754,6 +3773,10 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3782,6 +3805,10 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>TRIM(Table6[LastName])</f>
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3793,6 +3820,334 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>45000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37197</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>36000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36436</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>63000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36711</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>47000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36530</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>37017</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>65000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35040</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>41000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>37933</v>
+      </c>
+      <c r="I8" s="1">
+        <v>41551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>48000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>37416</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>42000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37843</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B9C42-087D-43BC-95CC-49AE54CDC17A}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -3835,13 +4190,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4147,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41C5D0-EC67-4288-8B29-30C6E5CFEE73}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -4186,331 +4541,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>45000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>37197</v>
-      </c>
-      <c r="I2" s="1">
-        <v>42253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>36000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>36436</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>63000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>36711</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>47000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>36530</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>37017</v>
-      </c>
-      <c r="I6" s="1">
-        <v>42977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>65000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>35040</v>
-      </c>
-      <c r="I7" s="1">
-        <v>41528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>41000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>37933</v>
-      </c>
-      <c r="I8" s="1">
-        <v>41551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>48000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>37416</v>
-      </c>
-      <c r="I9" s="1">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>42000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>37843</v>
-      </c>
-      <c r="I10" s="1">
-        <v>40800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/2_Formulas.xlsx
+++ b/2_Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Job\Skills\Excel\Excel-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9B48C-829D-4D2F-A655-9A2B8BBC3E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC08F75-9561-48BB-B572-D72EFDB3BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="780" windowWidth="38700" windowHeight="18990" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="16785" yWindow="705" windowWidth="29850" windowHeight="19155" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="96">
   <si>
     <t>FirstName</t>
   </si>
@@ -257,9 +257,6 @@
     <t>with NO instances</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
     <t>SUMIF</t>
   </si>
   <si>
@@ -321,6 +318,18 @@
   </si>
   <si>
     <t>Removes spaces on both ends</t>
+  </si>
+  <si>
+    <t>Instances allow you to choose which instance of the "/" to replace with a "-"</t>
+  </si>
+  <si>
+    <t>SUM(G2:G10)</t>
+  </si>
+  <si>
+    <t>Similar to Sums, but counts instances</t>
+  </si>
+  <si>
+    <t>NETWORKDAYS accounts for weekends, holidays, etc</t>
   </si>
 </sst>
 </file>
@@ -362,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -372,11 +381,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -446,8 +488,44 @@
     <tableColumn id="5" xr3:uid="{1FEDC08B-844C-4E8E-B65A-A0C0E8E438D8}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{8FBF1B78-3E1B-49EF-A428-0FF49D6DA177}" name="JobTitle"/>
     <tableColumn id="7" xr3:uid="{2AF9A2D8-F221-4056-8358-378E6FA8377C}" name="Salary"/>
-    <tableColumn id="8" xr3:uid="{49617086-A905-47FF-A77F-B633EBB5F9C6}" name="StartDate" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{6FAC04E2-AB9E-45C5-B553-7DCEF974480B}" name="EndDate" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{49617086-A905-47FF-A77F-B633EBB5F9C6}" name="StartDate" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{6FAC04E2-AB9E-45C5-B553-7DCEF974480B}" name="EndDate" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{599E78CB-D330-4FC5-B2E9-CA73E0E90E8F}" name="Table10" displayName="Table10" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{599E78CB-D330-4FC5-B2E9-CA73E0E90E8F}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D5A621A2-BFB5-46EC-9277-59D55DE07F64}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{1993D67E-97C2-46FE-8978-C84D12295D23}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{686D5594-2F63-4846-8160-974BC6F441E8}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{34DD3311-3496-4DC1-B049-91238849FD8D}" name="Age"/>
+    <tableColumn id="5" xr3:uid="{B81B6A49-A55B-4134-9BAE-C42AC07DE500}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{D6272DA0-67C5-44F9-918E-BED7F912E5A2}" name="JobTitle"/>
+    <tableColumn id="7" xr3:uid="{68AE0B1B-CE52-4C03-A2E7-043F1EAABE26}" name="Salary"/>
+    <tableColumn id="8" xr3:uid="{6B671E15-426A-4541-9341-D6EDED6E1500}" name="StartDate" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{517B1F67-5260-4FB5-87B6-F60407F11C29}" name="EndDate" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1C0519C1-018E-4AB1-8090-209AE1997FA1}" name="Table11" displayName="Table11" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{1C0519C1-018E-4AB1-8090-209AE1997FA1}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{24FB3E66-8F35-4BE9-81CF-7FF97AD39220}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{41066CD7-CC51-451F-A9BD-749F2745D455}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{2988EFDB-F685-445D-B781-C8DC7E13DEA0}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{87E2C713-B57C-4A6F-A41D-04D449694BC3}" name="Age"/>
+    <tableColumn id="5" xr3:uid="{71CA063D-F10A-4A5A-937E-A5972DD988F9}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{EC85832E-0DBA-46D7-8216-078DC43F6E31}" name="JobTitle"/>
+    <tableColumn id="7" xr3:uid="{3591C83D-E43E-45F5-B0AA-61CB7A92452F}" name="Salary"/>
+    <tableColumn id="8" xr3:uid="{A2460A97-834C-4B38-9480-144E67785F79}" name="StartDate" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{22B89267-EA80-4C6E-AE2E-B07D65D9F8B5}" name="EndDate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -464,8 +542,8 @@
     <tableColumn id="5" xr3:uid="{926B8865-82B3-41A4-89C6-917C32D77AB8}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{6AC45CD2-AC0C-4239-9BF1-368D436CBC33}" name="JobTitle"/>
     <tableColumn id="7" xr3:uid="{7F005690-3361-490D-AD77-0EB2B4CCBD26}" name="Salary"/>
-    <tableColumn id="8" xr3:uid="{BCC3CC2D-DA8D-4645-BEED-87EE3667789C}" name="StartDate" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{CE61768A-2D08-459A-86B6-6329E73828DE}" name="EndDate" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{BCC3CC2D-DA8D-4645-BEED-87EE3667789C}" name="StartDate" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{CE61768A-2D08-459A-86B6-6329E73828DE}" name="EndDate" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,8 +560,8 @@
     <tableColumn id="5" xr3:uid="{0F856110-08D0-4704-BD54-EA0FEB3A58BF}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{2F401BB1-B469-4D0F-AA38-F8455C6F05A9}" name="JobTitle"/>
     <tableColumn id="7" xr3:uid="{41D3EDFD-B1FC-4A7F-8026-96240ACDB448}" name="Salary"/>
-    <tableColumn id="8" xr3:uid="{66479DE9-86BD-4D3E-AA30-B8B773D04A9A}" name="StartDate" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{A9D2B7D4-F6E2-4B91-B022-BAC578851190}" name="EndDate" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{66479DE9-86BD-4D3E-AA30-B8B773D04A9A}" name="StartDate" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{A9D2B7D4-F6E2-4B91-B022-BAC578851190}" name="EndDate" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,9 +578,9 @@
     <tableColumn id="5" xr3:uid="{E651C94D-FF07-4FC0-89CB-48097D3DA666}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{3B6A3B64-657F-4159-B757-6528E3260843}" name="JobTitle"/>
     <tableColumn id="7" xr3:uid="{56682229-D3E9-4AD1-9E1F-DF9F054EFDE0}" name="Salary"/>
-    <tableColumn id="8" xr3:uid="{23B10ED3-E6E0-4861-AAC7-71B1926AB79D}" name="StartDate" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{DA376F06-89F3-4B9D-967E-DEAE6067DDF8}" name="EndDate" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{B3D204ED-0246-42C1-821B-C3E43D483197}" name="Email" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{23B10ED3-E6E0-4861-AAC7-71B1926AB79D}" name="StartDate" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{DA376F06-89F3-4B9D-967E-DEAE6067DDF8}" name="EndDate" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{B3D204ED-0246-42C1-821B-C3E43D483197}" name="Email" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,8 +597,8 @@
     <tableColumn id="5" xr3:uid="{10232F29-01AA-43EC-A8C6-330BC4018317}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{E5A8E744-4B8D-41B3-983B-45E6ABE57173}" name="JobTitle"/>
     <tableColumn id="7" xr3:uid="{9B4C788E-9C7C-4815-B756-DB7F84A3FC78}" name="Salary"/>
-    <tableColumn id="8" xr3:uid="{B4148CB3-7046-4788-AC4B-76460429A822}" name="StartDate" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{E34F6BDB-EB43-44D0-8DFD-6BD98D3AF468}" name="EndDate" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B4148CB3-7046-4788-AC4B-76460429A822}" name="StartDate" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{E34F6BDB-EB43-44D0-8DFD-6BD98D3AF468}" name="EndDate" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,14 +609,68 @@
   <autoFilter ref="A1:I10" xr:uid="{7CBB291A-9BC3-4B46-8F13-3C961D246640}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{88EE7883-5D61-4D78-85C3-4D8FDEEEA214}" name="EmployeeID"/>
-    <tableColumn id="2" xr3:uid="{3FE548C9-CD59-4445-937C-B006EA23A24C}" name="FirstName" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{89C35445-78BC-4E34-A284-D6730E434726}" name="LastName" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3FE548C9-CD59-4445-937C-B006EA23A24C}" name="FirstName" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{89C35445-78BC-4E34-A284-D6730E434726}" name="LastName" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{245E16B8-CA63-4D53-98BB-E52EB022660C}" name="Age"/>
     <tableColumn id="5" xr3:uid="{5606A813-5C8A-4624-B419-1413CE2FC77B}" name="Gender"/>
     <tableColumn id="6" xr3:uid="{C150A204-68B3-470C-9B70-F7AA9A48B862}" name="JobTitle"/>
     <tableColumn id="7" xr3:uid="{A6D6D26C-B029-4908-8BD4-66F94AE25C47}" name="Salary"/>
-    <tableColumn id="8" xr3:uid="{3E93DFC7-56E7-4FEA-B852-363AA6F969C9}" name="StartDate" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{8DCFC422-6CE9-4C31-92A6-368B3605C4AE}" name="EndDate" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{3E93DFC7-56E7-4FEA-B852-363AA6F969C9}" name="StartDate" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{8DCFC422-6CE9-4C31-92A6-368B3605C4AE}" name="EndDate" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B007195F-4167-4712-A707-4A5F59A65350}" name="Table7" displayName="Table7" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{B007195F-4167-4712-A707-4A5F59A65350}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F93DFAE3-C4C6-48E0-A6E7-59B0E4762FAB}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{35A8CBD0-88B3-41FA-9057-6CA85C36EEE9}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{909B40F0-D024-46BD-856A-7B5575367189}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{D12E5612-BA78-4A51-86C9-770E809EEB9B}" name="Age"/>
+    <tableColumn id="5" xr3:uid="{8A1E4F75-DE63-4017-8675-7809DF5089D6}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{C3F4021F-DA28-413C-B3AD-941B6CF8A610}" name="JobTitle"/>
+    <tableColumn id="7" xr3:uid="{8FA1405D-8B88-406D-A890-174E04329306}" name="Salary"/>
+    <tableColumn id="8" xr3:uid="{F11AA79F-AFF7-4110-8E3A-A59FCDD27314}" name="StartDate" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{E96F0761-49FD-414E-81E3-3B71C6F06DB1}" name="EndDate" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{868D7BFA-C6AD-4147-94F3-19E5BF29CC5E}" name="Table8" displayName="Table8" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{868D7BFA-C6AD-4147-94F3-19E5BF29CC5E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BF450731-D345-48B1-ACAC-124358DD530C}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{7D697C62-8236-4C98-922C-290789F72788}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{AFD0E87D-CE83-4931-94DB-EBD6BFBBF832}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{ACE34F47-EAF0-46AA-978A-C6932403F15E}" name="Age"/>
+    <tableColumn id="5" xr3:uid="{50D60475-6A6D-4E94-B95C-8DC52847EFDE}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{4C783CC2-5F4F-463E-BEE9-9844B9BF2DFF}" name="JobTitle"/>
+    <tableColumn id="7" xr3:uid="{47373167-9B82-42F3-9E67-9C93CFC3C26E}" name="Salary"/>
+    <tableColumn id="8" xr3:uid="{EC26CF40-A158-4325-B385-FDCB19DFBDFA}" name="StartDate" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{657F6FB5-5BC9-417D-AA6A-414F0CE9F30C}" name="EndDate" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{32F0D6AA-4708-4A4C-A85E-35E1612F1900}" name="Table9" displayName="Table9" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10" xr:uid="{32F0D6AA-4708-4A4C-A85E-35E1612F1900}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1280FC19-4A68-4876-8090-204A19621209}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{80BE3F36-73B0-4985-85A2-0D777E5B1990}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{1EA94B77-5FF5-4445-9F87-0A9C916B54E5}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{BC1B88CF-F48F-4961-BBE7-1D37F7BBC4B3}" name="Age"/>
+    <tableColumn id="5" xr3:uid="{4E1B8140-0778-458B-90E2-711C172FE843}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{72ACDB77-E2D0-4892-B5BF-822FC485E7F0}" name="JobTitle"/>
+    <tableColumn id="7" xr3:uid="{B301C8DE-1A5A-40BD-9BEC-409730C6CDB9}" name="Salary"/>
+    <tableColumn id="8" xr3:uid="{7E5C12D3-39D4-4D1E-968D-2232126173FB}" name="StartDate" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5D7E7CF4-93C4-47B7-906C-B5ED975092B1}" name="EndDate" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80D7546-D251-4908-B99A-2A3B4BFE22EA}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,16 +1024,16 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1210,13 +1342,20 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1248,13 +1387,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1285,6 +1424,9 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1520,21 +1662,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137ACEFD-E950-4ACE-A7FD-83ED10CB531A}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,10 +1719,10 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
         <v>81</v>
-      </c>
-      <c r="K1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1600,6 +1753,14 @@
       <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="J2">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>3611</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1629,6 +1790,14 @@
       <c r="I3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J3">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>4180</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1658,6 +1827,14 @@
       <c r="I4" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J4">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>4484</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1687,6 +1864,14 @@
       <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J5">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>4152</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1716,6 +1901,14 @@
       <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J6">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>4258</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1745,6 +1938,14 @@
       <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J7">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>3223</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1774,6 +1975,14 @@
       <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J8">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>2568</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1803,6 +2012,14 @@
       <c r="I9" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J9">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>3358</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1832,9 +2049,31 @@
       <c r="I10" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J10">
+        <f>_xlfn.DAYS(Table11[EndDate],Table11[StartDate])</f>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f>NETWORKDAYS(Table11[[#This Row],[StartDate]],Table11[[#This Row],[EndDate]])</f>
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K10)</f>
+        <v>=NETWORKDAYS(Table11[@StartDate],Table11[@EndDate])</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1891,16 +2130,16 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
         <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,7 +2542,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2670,13 +2909,13 @@
         <v>37</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3134,7 +3373,7 @@
         <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3511,7 +3750,7 @@
         <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3821,23 +4060,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3869,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3897,8 +4141,16 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Jim Halpert</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Jim.Halpert@gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3926,8 +4178,16 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Pam Beasley</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Pam.Beasley@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3955,8 +4215,16 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Dwight Schrute</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Dwight.Schrute@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3984,8 +4252,16 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Angela Martin</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Angela.Martin@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4013,8 +4289,16 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Toby Flenderson</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Toby.Flenderson@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4042,8 +4326,16 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Michael Scott</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Michael.Scott@gmail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4071,8 +4363,16 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Meredith Palmer</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Meredith.Palmer@gmail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4100,8 +4400,16 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Stanley Hudson</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Stanley.Hudson@gmail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4129,14 +4437,22 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName], " ", Table7[LastName])</f>
+        <v>Kevin Malone</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>CONCATENATE(Table7[FirstName],".",Table7[LastName],"@gmail.com")</f>
+        <v>Kevin.Malone@gmail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" t="str">
         <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -4144,6 +4460,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4152,13 +4471,23 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.42578125" customWidth="1"/>
+    <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4227,6 +4556,18 @@
       <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>11/2-2001</v>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>11-2-2001</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4256,6 +4597,18 @@
       <c r="I3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J3" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>10/3-1999</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>10-3-1999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4285,6 +4638,18 @@
       <c r="I4" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J4" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>7/4-2000</v>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>7-4-2000</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4314,6 +4679,18 @@
       <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>1/5-2000</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>1-5-2000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4343,6 +4720,18 @@
       <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J6" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>5/6-2001</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4372,6 +4761,18 @@
       <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J7" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>5/6-2001</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4401,6 +4802,18 @@
       <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J8" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>11/8-2003</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>11-8-2003</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4430,6 +4843,18 @@
       <c r="I9" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J9" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>6/9-2002</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>6-9-2002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4459,14 +4884,40 @@
       <c r="I10" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J10" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",1)</f>
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-",2)</f>
+        <v>8/10-2003</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f>SUBSTITUTE(Table8[StartDate],"/","-")</f>
+        <v>8-10-2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(J10)</f>
+        <v>=SUBSTITUTE(Table8[StartDate],"/","-",1)</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="K12" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K10)</f>
+        <v>=SUBSTITUTE(Table8[StartDate],"/","-",2)</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="L13" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L10)</f>
+        <v>=SUBSTITUTE(Table8[StartDate],"/","-")</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
@@ -4475,6 +4926,9 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
@@ -4499,6 +4953,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4507,10 +4964,23 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4541,13 +5011,13 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4578,6 +5048,18 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" s="5">
+        <f>SUM(Table9[Salary])</f>
+        <v>437000</v>
+      </c>
+      <c r="K2" s="5">
+        <f>SUMIF(Table9[Salary],"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SUMIFS(Table9[Salary],Table9[Gender],"Female",Table9[Age],"&gt;30")</f>
+        <v>88000</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4607,6 +5089,10 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="K3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K2)</f>
+        <v>=SUMIF(Table9[Salary],"&gt;50000")</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4636,6 +5122,10 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="L4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L2)</f>
+        <v>=SUMIFS(Table9[Salary],Table9[Gender],"Female",Table9[Age],"&gt;30")</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4813,5 +5303,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>